--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>141680</v>
+        <v>141681</v>
       </c>
       <c r="D53" t="n">
         <v>28854</v>
       </c>
       <c r="E53" t="n">
-        <v>590063206</v>
+        <v>590068269</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3813,13 +3813,13 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3412</v>
+        <v>3414</v>
       </c>
       <c r="D83" t="n">
         <v>616</v>
       </c>
       <c r="E83" t="n">
-        <v>115697749</v>
+        <v>115758395</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151141</v>
+        <v>151142</v>
       </c>
       <c r="D91" t="n">
         <v>24834</v>
       </c>
       <c r="E91" t="n">
-        <v>482432285</v>
+        <v>482442285</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409153</v>
+        <v>409155</v>
       </c>
       <c r="D92" t="n">
         <v>70906</v>
       </c>
       <c r="E92" t="n">
-        <v>1595499819</v>
+        <v>1595512102</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4305,13 +4305,13 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>50773</v>
+        <v>50776</v>
       </c>
       <c r="D95" t="n">
         <v>6982</v>
       </c>
       <c r="E95" t="n">
-        <v>932804726</v>
+        <v>932943241</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17294</v>
+        <v>17297</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>794330219</v>
+        <v>794564257</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>135244</v>
+        <v>135245</v>
       </c>
       <c r="D104" t="n">
         <v>23287</v>
       </c>
       <c r="E104" t="n">
-        <v>272232720</v>
+        <v>272235386</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>4562</v>
+        <v>4563</v>
       </c>
       <c r="D116" t="n">
         <v>967</v>
       </c>
       <c r="E116" t="n">
-        <v>20593756</v>
+        <v>20627806</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>226092</v>
+        <v>226098</v>
       </c>
       <c r="D174" t="n">
         <v>40899</v>
       </c>
       <c r="E174" t="n">
-        <v>900594909</v>
+        <v>900654909</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>14718</v>
+        <v>14719</v>
       </c>
       <c r="D177" t="n">
         <v>2256</v>
       </c>
       <c r="E177" t="n">
-        <v>251572342</v>
+        <v>251626957</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
